--- a/data/trans_dic/MCS12_SP_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1819905532439329</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2350886146003879</v>
+        <v>0.2350886146003878</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.193632861679082</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1387750115028197</v>
+        <v>0.1377931474755865</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1317775281903322</v>
+        <v>0.1282472461912775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1407093197667671</v>
+        <v>0.1402206705324767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1467314860359203</v>
+        <v>0.1497444549582806</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1777767485735733</v>
+        <v>0.1791383334307394</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1807485577926187</v>
+        <v>0.1793663983916936</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1455325617263523</v>
+        <v>0.1395042713881251</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2043035217601537</v>
+        <v>0.2012290930572854</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1657080876288193</v>
+        <v>0.1654002302002567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1619048589727405</v>
+        <v>0.1617539458584868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1502508074800622</v>
+        <v>0.1500007338723433</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1822476096702471</v>
+        <v>0.1812587002078737</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2140728412008232</v>
+        <v>0.2097816566424841</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2028448177206325</v>
+        <v>0.2054093123488906</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2145421637618397</v>
+        <v>0.2185523541984337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2145851062712264</v>
+        <v>0.2162744819808306</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2752873227243907</v>
+        <v>0.2735768220521554</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2786904707754509</v>
+        <v>0.2848084551905997</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2252029612822372</v>
+        <v>0.2229770367412909</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.271038667496702</v>
+        <v>0.2695369718421081</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2229098005726772</v>
+        <v>0.2246087859161577</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2206566364997409</v>
+        <v>0.222429436196629</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2108368119931575</v>
+        <v>0.2078211415699475</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2296468091095961</v>
+        <v>0.2307568982100491</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2057398290087953</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2030953305825653</v>
+        <v>0.2030953305825652</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.109674496066912</v>
+        <v>0.1127475024839072</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1638609641400688</v>
+        <v>0.1603037310680779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1347004794804243</v>
+        <v>0.1330787881656072</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1287348080210547</v>
+        <v>0.1308536801969739</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.215610193591775</v>
+        <v>0.2178276027002476</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2756834300459489</v>
+        <v>0.2708218143602952</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2013545066117602</v>
+        <v>0.2004716446710947</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2132727331649636</v>
+        <v>0.2159202614760927</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1765815670919237</v>
+        <v>0.1761213162132756</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2252703483957622</v>
+        <v>0.228753491518505</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1773187711698952</v>
+        <v>0.1769920237924949</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1779357850162874</v>
+        <v>0.1785209834106136</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1890290077893356</v>
+        <v>0.1923802149373613</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2504370441506945</v>
+        <v>0.2487856743372071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2088045240222711</v>
+        <v>0.2103072973623839</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1977985045266154</v>
+        <v>0.2008390602248563</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3065918394626769</v>
+        <v>0.3125475296028721</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3855821962516365</v>
+        <v>0.3828062385766318</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2932733868969453</v>
+        <v>0.2891777108349882</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.289759998128033</v>
+        <v>0.2874214713596792</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2350344983581862</v>
+        <v>0.2340628006596901</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2973208514584989</v>
+        <v>0.2942837063518407</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2366854003762313</v>
+        <v>0.2344445802410659</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2303039037423704</v>
+        <v>0.2301798936127319</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1504311800083243</v>
+        <v>0.1477494049650559</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2240694575233956</v>
+        <v>0.2227161032757339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1839811960205293</v>
+        <v>0.1809751541112861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1936544622887107</v>
+        <v>0.1948009993299445</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1855072107724924</v>
+        <v>0.1899085172873973</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2845832535558822</v>
+        <v>0.2907221364811098</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2410691494792901</v>
+        <v>0.2453077706987549</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2072563555552022</v>
+        <v>0.2143506677709236</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1684004558082348</v>
+        <v>0.1686777994105922</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2498253723593366</v>
+        <v>0.2539730877553092</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2058029241667214</v>
+        <v>0.2065554930424319</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2111231801081696</v>
+        <v>0.2085798522936315</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2147290841163305</v>
+        <v>0.2123743615671265</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2966268688671529</v>
+        <v>0.2935658703316842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2566632317539302</v>
+        <v>0.2520258905923918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2722303183932583</v>
+        <v>0.2743308999666527</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.323283750468442</v>
+        <v>0.3240826083271653</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4044969305520526</v>
+        <v>0.4087279912621958</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3892759977648883</v>
+        <v>0.3985386820409392</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3106869224278606</v>
+        <v>0.3277440611889884</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2299387992357483</v>
+        <v>0.2281110447300557</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3161841626681047</v>
+        <v>0.3155916955854911</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2702692589456937</v>
+        <v>0.2720629802114642</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2741983484450533</v>
+        <v>0.2713682460474628</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1948141414849149</v>
+        <v>0.1944887612013754</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.218632897971315</v>
+        <v>0.2192149070465764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1762303270855616</v>
+        <v>0.1738579440379491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.18110547678561</v>
+        <v>0.1860601422646454</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2353733187010735</v>
+        <v>0.2336147983636273</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2679804314942628</v>
+        <v>0.2663973302799681</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2362814895966842</v>
+        <v>0.2333118022358092</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.226801037584232</v>
+        <v>0.2296594750191304</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2161362270731795</v>
+        <v>0.2178350851559862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2471859541831335</v>
+        <v>0.2470612388576527</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.208679573918587</v>
+        <v>0.2070419289219609</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2107580344234995</v>
+        <v>0.2109137938284804</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2437329851926211</v>
+        <v>0.2439614821510838</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2679498372842392</v>
+        <v>0.270422422305093</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.223463450337997</v>
+        <v>0.2234686324963922</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2294887471235705</v>
+        <v>0.2347629906710841</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2991438611691361</v>
+        <v>0.3001989704453449</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3343308935063064</v>
+        <v>0.3370940563113548</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2965754327905589</v>
+        <v>0.2984880797695408</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2788197507012415</v>
+        <v>0.278984736589227</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2559917362479968</v>
+        <v>0.2546609964569371</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2871800275668358</v>
+        <v>0.2889344532788616</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2467466607529692</v>
+        <v>0.2465590088622562</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2448762776350054</v>
+        <v>0.2454275932699445</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1547928832314459</v>
+        <v>0.1589739495682083</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.193031978975522</v>
+        <v>0.1928826517259377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1752251836183777</v>
+        <v>0.1756954687089236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1804491270643703</v>
+        <v>0.1812228466144375</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2598365708161495</v>
+        <v>0.2533667750200611</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3528947877627219</v>
+        <v>0.3562236266516583</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3147801483384672</v>
+        <v>0.3151976896662484</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3000975848443433</v>
+        <v>0.3006942668295734</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2290634387174725</v>
+        <v>0.2272584932315878</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3004023033085054</v>
+        <v>0.3005435923390773</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2589460241108367</v>
+        <v>0.2617101393271696</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2591769864109812</v>
+        <v>0.2605916893421101</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2474831997014428</v>
+        <v>0.2447008142472726</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2720596274204096</v>
+        <v>0.2696005140716182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2407913629058502</v>
+        <v>0.2454236782445255</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2516936089076627</v>
+        <v>0.2534939857218548</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3357647792676003</v>
+        <v>0.3325577118960076</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4252359220791112</v>
+        <v>0.4276542434224156</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3847570100145059</v>
+        <v>0.384666258349361</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3543504828376692</v>
+        <v>0.3523157242746612</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2874970316956633</v>
+        <v>0.2860791102806211</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3543393921920799</v>
+        <v>0.3547250047667146</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3088480699178201</v>
+        <v>0.3128444238862704</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3028996207886427</v>
+        <v>0.3046916935684111</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.215742511528382</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2478564604889953</v>
+        <v>0.2478564604889954</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08156000941288079</v>
+        <v>0.08718733012323845</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1127484314786378</v>
+        <v>0.1141511463489892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07551301318252968</v>
+        <v>0.07707798352675777</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07521941457379751</v>
+        <v>0.07059216421452709</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2402051972648102</v>
+        <v>0.2427984636055399</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2982396935136267</v>
+        <v>0.2976801598692191</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2165925523985255</v>
+        <v>0.2197284334199368</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2553494588229922</v>
+        <v>0.2555430644168032</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2151117627939236</v>
+        <v>0.217627121997274</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2656165540490599</v>
+        <v>0.267984088762789</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1919571455466854</v>
+        <v>0.1932505704171696</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2213161762719972</v>
+        <v>0.2217031884911049</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1584197531473086</v>
+        <v>0.1600289112880901</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2026414953179442</v>
+        <v>0.2035988041058364</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1493963009762895</v>
+        <v>0.1504157628180312</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1888920111180065</v>
+        <v>0.1861703685106076</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2925182920436111</v>
+        <v>0.2910955573512876</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3554074087988653</v>
+        <v>0.3554394528885619</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2722151422520387</v>
+        <v>0.2724314462834112</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3135652420153724</v>
+        <v>0.3145568178548931</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2598118569984925</v>
+        <v>0.2613448305923425</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3183280754266</v>
+        <v>0.3175331947106614</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2404515645654106</v>
+        <v>0.2377258700026514</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2756516167414421</v>
+        <v>0.276027581287858</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2292545790974984</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2360501982263217</v>
+        <v>0.2360501982263216</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1729543073361687</v>
+        <v>0.1720632373907815</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2073483770996945</v>
+        <v>0.2075436115242609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1765266985959278</v>
+        <v>0.1744282200259062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1822783086332505</v>
+        <v>0.181875057458096</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2503022589874725</v>
+        <v>0.2512392581932857</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3104020887509577</v>
+        <v>0.3111724229858172</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.252968708878776</v>
+        <v>0.2530255452654828</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.262148948403966</v>
+        <v>0.261507663403645</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2159875437171946</v>
+        <v>0.2162824877546135</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2641530581108729</v>
+        <v>0.2650766472154425</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.219386665087835</v>
+        <v>0.2180096437265874</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2267477811469391</v>
+        <v>0.2267501621857535</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1999558472698849</v>
+        <v>0.1999285802914505</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2378982414614573</v>
+        <v>0.2373185213525295</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2044558979072571</v>
+        <v>0.2032570569261427</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2094050283290116</v>
+        <v>0.2102116837351838</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.280309510293386</v>
+        <v>0.2815804244752685</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3427829971467137</v>
+        <v>0.3441060159088283</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2828618757641689</v>
+        <v>0.282562085304589</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2891557974038962</v>
+        <v>0.2881515997647717</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2373817383477771</v>
+        <v>0.236856302342878</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2869543267953722</v>
+        <v>0.2867661313069983</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.23990928385421</v>
+        <v>0.2397462019720946</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.245826175274846</v>
+        <v>0.246231168942498</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>65748</v>
+        <v>65283</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57615</v>
+        <v>56071</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>60377</v>
+        <v>60168</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>80433</v>
+        <v>82085</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>54521</v>
+        <v>54938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>56837</v>
+        <v>56402</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>50508</v>
+        <v>48416</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>99459</v>
+        <v>97963</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>129328</v>
+        <v>129088</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>121698</v>
+        <v>121585</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>116617</v>
+        <v>116423</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>188624</v>
+        <v>187600</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>101423</v>
+        <v>99390</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88686</v>
+        <v>89807</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>92058</v>
+        <v>93779</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>117628</v>
+        <v>118554</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>84425</v>
+        <v>83901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>87635</v>
+        <v>89559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>78158</v>
+        <v>77385</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>131947</v>
+        <v>131216</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>173972</v>
+        <v>175297</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>165860</v>
+        <v>167192</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>163640</v>
+        <v>161300</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>237681</v>
+        <v>238830</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40243</v>
+        <v>41371</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>68624</v>
+        <v>67135</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50813</v>
+        <v>50201</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>62077</v>
+        <v>63099</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>80178</v>
+        <v>81002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>93184</v>
+        <v>91541</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>74959</v>
+        <v>74630</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>90105</v>
+        <v>91223</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>130458</v>
+        <v>130118</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>170486</v>
+        <v>173122</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>132900</v>
+        <v>132656</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>160977</v>
+        <v>161507</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>69361</v>
+        <v>70591</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>104882</v>
+        <v>104191</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>78767</v>
+        <v>79334</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>95380</v>
+        <v>96846</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>114011</v>
+        <v>116225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>130331</v>
+        <v>129393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>109178</v>
+        <v>107653</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>122420</v>
+        <v>121432</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>173643</v>
+        <v>172925</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>225015</v>
+        <v>222716</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>177396</v>
+        <v>175716</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>208355</v>
+        <v>208242</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>81592</v>
+        <v>80138</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>141033</v>
+        <v>140181</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>96022</v>
+        <v>94453</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>90760</v>
+        <v>91297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31125</v>
+        <v>31863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>74028</v>
+        <v>75625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40047</v>
+        <v>40751</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>38643</v>
+        <v>39965</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>119593</v>
+        <v>119790</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>222231</v>
+        <v>225920</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>141600</v>
+        <v>142118</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>138311</v>
+        <v>136644</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>116467</v>
+        <v>115190</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>186701</v>
+        <v>184775</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>133956</v>
+        <v>131536</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>127586</v>
+        <v>128570</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>54241</v>
+        <v>54375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>105221</v>
+        <v>106322</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64668</v>
+        <v>66206</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57927</v>
+        <v>61108</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>163296</v>
+        <v>161998</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>281260</v>
+        <v>280733</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>185955</v>
+        <v>187189</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>179632</v>
+        <v>177778</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>241245</v>
+        <v>240842</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>253397</v>
+        <v>254072</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>202601</v>
+        <v>199874</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>203975</v>
+        <v>209556</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>168124</v>
+        <v>166868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>205449</v>
+        <v>204235</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>195139</v>
+        <v>192687</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>194793</v>
+        <v>197248</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>422032</v>
+        <v>425349</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>475998</v>
+        <v>475758</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>412249</v>
+        <v>409014</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>418387</v>
+        <v>418696</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>301823</v>
+        <v>302106</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>310556</v>
+        <v>313422</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>256902</v>
+        <v>256908</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>258469</v>
+        <v>264409</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>213674</v>
+        <v>214428</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>256317</v>
+        <v>258436</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>244935</v>
+        <v>246514</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>239470</v>
+        <v>239612</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>499855</v>
+        <v>497256</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>553013</v>
+        <v>556392</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>487451</v>
+        <v>487081</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>486116</v>
+        <v>487211</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>54263</v>
+        <v>55729</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>98561</v>
+        <v>98485</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>108763</v>
+        <v>109055</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>101581</v>
+        <v>102017</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>147783</v>
+        <v>144103</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>268737</v>
+        <v>271272</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>232385</v>
+        <v>232693</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>247868</v>
+        <v>248361</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>210580</v>
+        <v>208920</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>382147</v>
+        <v>382327</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>351895</v>
+        <v>355651</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>359969</v>
+        <v>361934</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>86756</v>
+        <v>85781</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>138913</v>
+        <v>137657</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>149461</v>
+        <v>152336</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>141687</v>
+        <v>142701</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>190967</v>
+        <v>189143</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>323827</v>
+        <v>325668</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>284045</v>
+        <v>283978</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>292678</v>
+        <v>290998</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>264298</v>
+        <v>262995</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>450762</v>
+        <v>451252</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>419709</v>
+        <v>425140</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>420695</v>
+        <v>423184</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24321</v>
+        <v>25999</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>30091</v>
+        <v>30465</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21683</v>
+        <v>22133</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17844</v>
+        <v>16746</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>299959</v>
+        <v>303197</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>330853</v>
+        <v>330232</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>234359</v>
+        <v>237752</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>213264</v>
+        <v>213425</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>332769</v>
+        <v>336660</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>365550</v>
+        <v>368809</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>262822</v>
+        <v>264593</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>237342</v>
+        <v>237757</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>47241</v>
+        <v>47721</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>54081</v>
+        <v>54337</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>42898</v>
+        <v>43191</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>44810</v>
+        <v>44165</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>365285</v>
+        <v>363508</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>394272</v>
+        <v>394307</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>294544</v>
+        <v>294778</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>261885</v>
+        <v>262713</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>401919</v>
+        <v>404290</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>438094</v>
+        <v>437000</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>329219</v>
+        <v>325487</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>295612</v>
+        <v>296015</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>565593</v>
+        <v>562679</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>709527</v>
+        <v>710196</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>597670</v>
+        <v>590565</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>624391</v>
+        <v>623010</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>845552</v>
+        <v>848717</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1101966</v>
+        <v>1104701</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>893383</v>
+        <v>893584</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>947870</v>
+        <v>945551</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1435953</v>
+        <v>1437914</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1841684</v>
+        <v>1848124</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1517567</v>
+        <v>1508042</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1596588</v>
+        <v>1596605</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>653894</v>
+        <v>653804</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>814066</v>
+        <v>812083</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>692231</v>
+        <v>688172</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>717314</v>
+        <v>720077</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>946920</v>
+        <v>951214</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1216922</v>
+        <v>1221619</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>998954</v>
+        <v>997895</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1045521</v>
+        <v>1041890</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1578188</v>
+        <v>1574695</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2000656</v>
+        <v>1999344</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1659529</v>
+        <v>1658401</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1730924</v>
+        <v>1733776</v>
       </c>
     </row>
     <row r="32">
